--- a/early_voting/data/_raw/absentee ballots analysis oct 2016.xlsx
+++ b/early_voting/data/_raw/absentee ballots analysis oct 2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="19740" windowHeight="7650"/>
+    <workbookView xWindow="39660" yWindow="1960" windowWidth="26900" windowHeight="17360"/>
   </bookViews>
   <sheets>
     <sheet name="WHERE" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,15 @@
     <sheet name="WHEN" sheetId="3" r:id="rId4"/>
     <sheet name="LEAN" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="27" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -556,8 +561,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -591,7 +596,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -599,13 +604,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -615,9 +631,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -699,19 +716,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.7228236660210119E-2</c:v>
+                  <c:v>0.0672282366602101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24745116293037434</c:v>
+                  <c:v>0.247451162930374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38984569337877945</c:v>
+                  <c:v>0.389845693378779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6192335220248555E-2</c:v>
+                  <c:v>0.0761923352202485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21928257181038754</c:v>
+                  <c:v>0.219282571810388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,19 +778,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10077229793625946</c:v>
+                  <c:v>0.100772297936259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24702296325531803</c:v>
+                  <c:v>0.247022963255318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32653399673972378</c:v>
+                  <c:v>0.326533996739724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2757140069625654E-2</c:v>
+                  <c:v>0.0927571400696256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23291360199907307</c:v>
+                  <c:v>0.232913601999073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,11 +806,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162463104"/>
-        <c:axId val="165090432"/>
+        <c:axId val="1645685736"/>
+        <c:axId val="1645413656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162463104"/>
+        <c:axId val="1645685736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165090432"/>
+        <c:crossAx val="1645413656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165090432"/>
+        <c:axId val="1645413656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162463104"/>
+        <c:crossAx val="1645685736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -864,10 +881,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1354854697216902"/>
-          <c:y val="5.5267702936096716E-2"/>
-          <c:w val="0.8101122224586792"/>
-          <c:h val="0.87546924510083912"/>
+          <c:x val="0.13548546972169"/>
+          <c:y val="0.0552677029360967"/>
+          <c:w val="0.810112222458679"/>
+          <c:h val="0.875469245100839"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -914,25 +931,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.24787659474366483</c:v>
+                  <c:v>0.247876594743665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0496554002312348E-2</c:v>
+                  <c:v>0.0704965540023123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1973352953247545E-2</c:v>
+                  <c:v>0.0919733529532475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10936100141643769</c:v>
+                  <c:v>0.109361001416438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13872080161363784</c:v>
+                  <c:v>0.138720801613638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18292566955459791</c:v>
+                  <c:v>0.182925669554598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15864602571610184</c:v>
+                  <c:v>0.158646025716102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183583872"/>
-        <c:axId val="183585792"/>
+        <c:axId val="1646279960"/>
+        <c:axId val="1646566136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183583872"/>
+        <c:axId val="1646279960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183585792"/>
+        <c:crossAx val="1646566136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -969,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183585792"/>
+        <c:axId val="1646566136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183583872"/>
+        <c:crossAx val="1646279960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,28 +1081,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5210889052388174E-2</c:v>
+                  <c:v>0.0452108890523882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9530423379730427E-2</c:v>
+                  <c:v>0.0595304233797304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1702628167590104E-2</c:v>
+                  <c:v>0.0617026281675901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5917356116458199E-2</c:v>
+                  <c:v>0.0959173561164582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20408214337552616</c:v>
+                  <c:v>0.204082143375526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2694034444961636</c:v>
+                  <c:v>0.269403444496164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23220068369394936</c:v>
+                  <c:v>0.232200683693949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1952431718193966E-2</c:v>
+                  <c:v>0.031952431718194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,25 +1154,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.7353006860348988E-2</c:v>
+                  <c:v>0.077353006860349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1609308896372095</c:v>
+                  <c:v>0.160930889637209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15668488816175768</c:v>
+                  <c:v>0.156684888161758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1773449771907197</c:v>
+                  <c:v>0.17734497719072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19414392430028957</c:v>
+                  <c:v>0.19414392430029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13301555497563497</c:v>
+                  <c:v>0.133015554975635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10052675887403957</c:v>
+                  <c:v>0.10052675887404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,11 +1188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="266005888"/>
-        <c:axId val="266634368"/>
+        <c:axId val="1646607848"/>
+        <c:axId val="1646610216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="266005888"/>
+        <c:axId val="1646607848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266634368"/>
+        <c:crossAx val="1646610216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1192,7 +1209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266634368"/>
+        <c:axId val="1646610216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,14 +1220,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266005888"/>
+        <c:crossAx val="1646607848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1306,19 +1322,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98057</c:v>
+                  <c:v>98057.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35324</c:v>
+                  <c:v>35324.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45298</c:v>
+                  <c:v>45298.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1425</c:v>
+                  <c:v>1425.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19693</c:v>
+                  <c:v>19693.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,11 +1349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439268480"/>
-        <c:axId val="439270784"/>
+        <c:axId val="1651613912"/>
+        <c:axId val="1651616040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439268480"/>
+        <c:axId val="1651613912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439270784"/>
+        <c:crossAx val="1651616040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1354,7 +1370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439270784"/>
+        <c:axId val="1651616040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439268480"/>
+        <c:crossAx val="1651613912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,7 +1448,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1476,19 +1491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1425</c:v>
+                  <c:v>1425.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19693</c:v>
+                  <c:v>19693.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35324</c:v>
+                  <c:v>35324.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45298</c:v>
+                  <c:v>45298.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98057</c:v>
+                  <c:v>98057.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,11 +1519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="262985984"/>
-        <c:axId val="263393280"/>
+        <c:axId val="1646653480"/>
+        <c:axId val="1646655848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="262985984"/>
+        <c:axId val="1646653480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263393280"/>
+        <c:crossAx val="1646655848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1525,7 +1540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263393280"/>
+        <c:axId val="1646655848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262985984"/>
+        <c:crossAx val="1646653480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2080,7 +2095,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2437,19 +2452,19 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2469,19 +2484,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>570</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1902</v>
       </c>
       <c r="C2">
-        <v>2673</v>
+        <v>3568</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D33" si="0">B2/C2</f>
-        <v>0.21324354657687991</v>
+        <f>B2/C2</f>
+        <v>0.53307174887892372</v>
       </c>
       <c r="H2" t="s">
         <v>92</v>
@@ -2497,19 +2512,19 @@
         <v>0.10077229793625946</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>1031</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1262</v>
       </c>
       <c r="C3">
-        <v>5158</v>
+        <v>2395</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19988367584335012</v>
+        <f>B3/C3</f>
+        <v>0.52693110647181629</v>
       </c>
       <c r="H3" t="s">
         <v>93</v>
@@ -2525,19 +2540,19 @@
         <v>0.24702296325531803</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>738</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1273</v>
       </c>
       <c r="C4">
-        <v>3757</v>
+        <v>2673</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19643332446100611</v>
+        <f>B4/C4</f>
+        <v>0.47624392068836513</v>
       </c>
       <c r="H4" t="s">
         <v>91</v>
@@ -2553,19 +2568,19 @@
         <v>0.32653399673972378</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>353</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1564</v>
       </c>
       <c r="C5">
-        <v>1988</v>
+        <v>3757</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17756539235412475</v>
+        <f>B5/C5</f>
+        <v>0.41628959276018102</v>
       </c>
       <c r="H5" t="s">
         <v>95</v>
@@ -2581,19 +2596,19 @@
         <v>9.2757140069625654E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>3227</v>
+        <v>44</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2142</v>
       </c>
       <c r="C6">
-        <v>18174</v>
+        <v>5158</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17756135138109386</v>
+        <f>B6/C6</f>
+        <v>0.41527723924001553</v>
       </c>
       <c r="H6" t="s">
         <v>94</v>
@@ -2609,35 +2624,35 @@
         <v>0.23291360199907307</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>3878</v>
+        <v>63</v>
+      </c>
+      <c r="B7" s="10">
+        <v>821</v>
       </c>
       <c r="C7">
-        <v>26339</v>
+        <v>2110</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14723413948897074</v>
+        <f>B7/C7</f>
+        <v>0.38909952606635073</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8">
-        <v>798</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="10">
+        <v>734</v>
       </c>
       <c r="C8">
-        <v>5793</v>
+        <v>1988</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13775245986535473</v>
+        <f>B8/C8</f>
+        <v>0.36921529175050299</v>
       </c>
       <c r="H8" t="s">
         <v>124</v>
@@ -2647,98 +2662,98 @@
         <v>199797</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>402</v>
+      <c r="B9" s="10">
+        <v>1021</v>
       </c>
       <c r="C9">
         <v>3045</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13201970443349753</v>
+        <f>B9/C9</f>
+        <v>0.33530377668308703</v>
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>270</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5244</v>
       </c>
       <c r="C10">
-        <v>2110</v>
+        <v>18174</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12796208530805686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <f>B10/C10</f>
+        <v>0.28854407395179926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>309</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1606</v>
       </c>
       <c r="C11">
-        <v>2462</v>
+        <v>5793</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12550771730300569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <f>B11/C11</f>
+        <v>0.27723114103228036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>680</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="10">
+        <v>7057</v>
       </c>
       <c r="C12">
-        <v>5454</v>
+        <v>26339</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12467913458012468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <f>B12/C12</f>
+        <v>0.26792968601693307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>702</v>
+        <v>51</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1330</v>
       </c>
       <c r="C13">
-        <v>7011</v>
+        <v>4991</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10012836970474968</v>
+        <f>B13/C13</f>
+        <v>0.26647966339410939</v>
       </c>
       <c r="I13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>994</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1835</v>
       </c>
       <c r="C14">
-        <v>10010</v>
+        <v>7011</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>9.9300699300699305E-2</v>
+        <f>B14/C14</f>
+        <v>0.26173156468406789</v>
       </c>
       <c r="H14" t="s">
         <v>92</v>
@@ -2751,19 +2766,19 @@
         <v>0.10077229793625946</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15">
-        <v>340</v>
+      <c r="B15" s="10">
+        <v>885</v>
       </c>
       <c r="C15">
         <v>3502</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7087378640776698E-2</v>
+        <f>B15/C15</f>
+        <v>0.25271273557966878</v>
       </c>
       <c r="H15" t="s">
         <v>93</v>
@@ -2772,23 +2787,23 @@
         <v>725398</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15:J18" si="1">I15/$I$20</f>
+        <f t="shared" ref="J15:J18" si="0">I15/$I$20</f>
         <v>0.24702296325531803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
-        <v>223</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1327</v>
       </c>
       <c r="C16">
-        <v>2395</v>
+        <v>5454</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3110647181628398E-2</v>
+        <f>B16/C16</f>
+        <v>0.2433076640997433</v>
       </c>
       <c r="H16" t="s">
         <v>91</v>
@@ -2797,23 +2812,23 @@
         <v>958887</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.32653399673972378</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <v>506</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1242</v>
       </c>
       <c r="C17">
-        <v>5505</v>
+        <v>5116</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1916439600363303E-2</v>
+        <f>B17/C17</f>
+        <v>0.24276778733385457</v>
       </c>
       <c r="H17" t="s">
         <v>95</v>
@@ -2822,23 +2837,23 @@
         <v>272387</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2757140069625654E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1065</v>
+        <v>75</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1271</v>
       </c>
       <c r="C18">
-        <v>12430</v>
+        <v>5505</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5679806918744966E-2</v>
+        <f>B18/C18</f>
+        <v>0.23088101725703905</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
@@ -2847,1071 +2862,1076 @@
         <v>683965</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.23291360199907307</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>552</v>
+      </c>
+      <c r="C19">
+        <v>2462</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19/C19</f>
+        <v>0.22420796100731114</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>59451</v>
-      </c>
-      <c r="C19">
+      <c r="B20" s="10">
+        <v>162773</v>
+      </c>
+      <c r="C20">
         <v>737219</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>8.0642251488363709E-2</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>285</v>
-      </c>
-      <c r="C20">
-        <v>3568</v>
-      </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>7.987668161434977E-2</v>
+        <f>B20/C20</f>
+        <v>0.22079327852374939</v>
       </c>
       <c r="I20" s="7">
         <f>SUM(I14:I18)</f>
         <v>2936561</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3721</v>
+      </c>
+      <c r="C21">
+        <v>18755</v>
+      </c>
+      <c r="D21" s="1">
+        <f>B21/C21</f>
+        <v>0.19840042655291923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3176</v>
+      </c>
+      <c r="C22">
+        <v>16171</v>
+      </c>
+      <c r="D22" s="1">
+        <f>B22/C22</f>
+        <v>0.19640096468987694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10">
+        <v>47194</v>
+      </c>
+      <c r="C23">
+        <v>250928</v>
+      </c>
+      <c r="D23" s="1">
+        <f>B23/C23</f>
+        <v>0.1880778550022317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10">
+        <v>28811</v>
+      </c>
+      <c r="C24">
+        <v>156319</v>
+      </c>
+      <c r="D24" s="1">
+        <f>B24/C24</f>
+        <v>0.18430900914156309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1820</v>
+      </c>
+      <c r="C25">
+        <v>10010</v>
+      </c>
+      <c r="D25" s="1">
+        <f>B25/C25</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B21">
-        <v>2680</v>
-      </c>
-      <c r="C21">
+      <c r="B26" s="10">
+        <v>6215</v>
+      </c>
+      <c r="C26">
         <v>34276</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>7.8188820165713616E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D26" s="1">
+        <f>B26/C26</f>
+        <v>0.18132220795892171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10">
+        <v>4118</v>
+      </c>
+      <c r="C27">
+        <v>23488</v>
+      </c>
+      <c r="D27" s="1">
+        <f>B27/C27</f>
+        <v>0.17532356948228883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2171</v>
+      </c>
+      <c r="C28">
+        <v>12430</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28/C28</f>
+        <v>0.1746580852775543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10">
+        <v>6672</v>
+      </c>
+      <c r="C29">
+        <v>38621</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29/C29</f>
+        <v>0.17275575464125734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="10">
+        <v>50944</v>
+      </c>
+      <c r="C30">
+        <v>297151</v>
+      </c>
+      <c r="D30" s="1">
+        <f>B30/C30</f>
+        <v>0.17144145569087771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1338</v>
+      </c>
+      <c r="C31">
+        <v>8363</v>
+      </c>
+      <c r="D31" s="1">
+        <f>B31/C31</f>
+        <v>0.15999043405476504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="10">
+        <v>13795</v>
+      </c>
+      <c r="C32">
+        <v>87672</v>
+      </c>
+      <c r="D32" s="1">
+        <f>B32/C32</f>
+        <v>0.15734784195638288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>1425</v>
-      </c>
-      <c r="C22">
+      <c r="B33" s="10">
+        <v>2847</v>
+      </c>
+      <c r="C33">
         <v>18334</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7724446383767867E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>3000</v>
-      </c>
-      <c r="C23">
-        <v>38621</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7677947230781183E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>1747</v>
-      </c>
-      <c r="C24">
-        <v>23488</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4378405994550409E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25">
-        <v>1165</v>
-      </c>
-      <c r="C25">
-        <v>16171</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>7.2042545297136856E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26">
-        <v>10664</v>
-      </c>
-      <c r="C26">
-        <v>156319</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8219474280157885E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D33" s="1">
+        <f>B33/C33</f>
+        <v>0.1552852623540962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="10">
+        <v>3107</v>
+      </c>
+      <c r="C34">
+        <v>20108</v>
+      </c>
+      <c r="D34" s="1">
+        <f>B34/C34</f>
+        <v>0.1545156156753531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2275</v>
+      </c>
+      <c r="C35">
+        <v>14743</v>
+      </c>
+      <c r="D35" s="1">
+        <f>B35/C35</f>
+        <v>0.15431052024689684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
-        <v>892</v>
-      </c>
-      <c r="C27">
+      <c r="B36" s="10">
+        <v>2038</v>
+      </c>
+      <c r="C36">
         <v>13220</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>6.747352496217851E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28">
-        <v>560</v>
-      </c>
-      <c r="C28">
-        <v>8363</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6961616644744704E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D36" s="1">
+        <f>B36/C36</f>
+        <v>0.15416036308623299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="10">
+        <v>9099</v>
+      </c>
+      <c r="C37">
+        <v>60798</v>
+      </c>
+      <c r="D37" s="1">
+        <f>B37/C37</f>
+        <v>0.14965952827395637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="10">
+        <v>27985</v>
+      </c>
+      <c r="C38">
+        <v>202759</v>
+      </c>
+      <c r="D38" s="1">
+        <f>B38/C38</f>
+        <v>0.13802100030084977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="10">
+        <v>4299</v>
+      </c>
+      <c r="C39">
+        <v>31149</v>
+      </c>
+      <c r="D39" s="1">
+        <f>B39/C39</f>
+        <v>0.13801406144659539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10">
+        <v>958</v>
+      </c>
+      <c r="C40">
+        <v>7091</v>
+      </c>
+      <c r="D40" s="1">
+        <f>B40/C40</f>
+        <v>0.13510083204061488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="10">
+        <v>3197</v>
+      </c>
+      <c r="C41">
+        <v>23867</v>
+      </c>
+      <c r="D41" s="1">
+        <f>B41/C41</f>
+        <v>0.13395064314744207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="10">
+        <v>886</v>
+      </c>
+      <c r="C42">
+        <v>6783</v>
+      </c>
+      <c r="D42" s="1">
+        <f>B42/C42</f>
+        <v>0.13062066932035973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="10">
+        <v>4546</v>
+      </c>
+      <c r="C43">
+        <v>34850</v>
+      </c>
+      <c r="D43" s="1">
+        <f>B43/C43</f>
+        <v>0.13044476327116211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="10">
+        <v>3050</v>
+      </c>
+      <c r="C44">
+        <v>23382</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44/C44</f>
+        <v>0.13044222051150459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="10">
+        <v>924</v>
+      </c>
+      <c r="C45">
+        <v>7216</v>
+      </c>
+      <c r="D45" s="1">
+        <f>B45/C45</f>
+        <v>0.12804878048780488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
-        <v>1163</v>
-      </c>
-      <c r="C29">
+      <c r="B46" s="10">
+        <v>2219</v>
+      </c>
+      <c r="C46">
         <v>17622</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5997049143116562E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30">
-        <v>16379</v>
-      </c>
-      <c r="C30">
-        <v>250928</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5273704010712238E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31">
-        <v>1534</v>
-      </c>
-      <c r="C31">
-        <v>23867</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4272845351321911E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32">
-        <v>424</v>
-      </c>
-      <c r="C32">
-        <v>6783</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2509214212000591E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33">
-        <v>18439</v>
-      </c>
-      <c r="C33">
-        <v>297151</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2052626442448452E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <v>5281</v>
-      </c>
-      <c r="C34">
-        <v>87672</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:D65" si="2">B34/C34</f>
-        <v>6.023587918605712E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D46" s="1">
+        <f>B46/C46</f>
+        <v>0.12592214277607536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>15</v>
       </c>
-      <c r="B35">
-        <v>269</v>
-      </c>
-      <c r="C35">
+      <c r="B47" s="10">
+        <v>545</v>
+      </c>
+      <c r="C47">
         <v>4513</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
-        <v>5.9605583868823399E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D47" s="1">
+        <f>B47/C47</f>
+        <v>0.12076224241081321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="10">
+        <v>6151</v>
+      </c>
+      <c r="C48">
+        <v>52716</v>
+      </c>
+      <c r="D48" s="1">
+        <f>B48/C48</f>
+        <v>0.11668184232491084</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="10">
+        <v>484</v>
+      </c>
+      <c r="C49">
+        <v>4195</v>
+      </c>
+      <c r="D49" s="1">
+        <f>B49/C49</f>
+        <v>0.11537544696066745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1074</v>
+      </c>
+      <c r="C50">
+        <v>9311</v>
+      </c>
+      <c r="D50" s="1">
+        <f>B50/C50</f>
+        <v>0.11534743851358609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="10">
+        <v>9660</v>
+      </c>
+      <c r="C51">
+        <v>83843</v>
+      </c>
+      <c r="D51" s="1">
+        <f>B51/C51</f>
+        <v>0.11521534296244171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="10">
+        <v>3901</v>
+      </c>
+      <c r="C52">
+        <v>35077</v>
+      </c>
+      <c r="D52" s="1">
+        <f>B52/C52</f>
+        <v>0.11121247541123813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="10">
+        <v>646</v>
+      </c>
+      <c r="C53">
+        <v>5851</v>
+      </c>
+      <c r="D53" s="1">
+        <f>B53/C53</f>
+        <v>0.11040847718338745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="10">
+        <v>3540</v>
+      </c>
+      <c r="C54">
+        <v>32251</v>
+      </c>
+      <c r="D54" s="1">
+        <f>B54/C54</f>
+        <v>0.10976403832439305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="10">
+        <v>3063</v>
+      </c>
+      <c r="C55">
+        <v>27948</v>
+      </c>
+      <c r="D55" s="1">
+        <f>B55/C55</f>
+        <v>0.10959639330184628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="10">
+        <v>8733</v>
+      </c>
+      <c r="C56">
+        <v>80477</v>
+      </c>
+      <c r="D56" s="1">
+        <f>B56/C56</f>
+        <v>0.10851547647153845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2220</v>
+      </c>
+      <c r="C57">
+        <v>20626</v>
+      </c>
+      <c r="D57" s="1">
+        <f>B57/C57</f>
+        <v>0.10763114515659847</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="10">
+        <v>7958</v>
+      </c>
+      <c r="C58">
+        <v>74546</v>
+      </c>
+      <c r="D58" s="1">
+        <f>B58/C58</f>
+        <v>0.10675287741797011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1503</v>
+      </c>
+      <c r="C59">
+        <v>14155</v>
+      </c>
+      <c r="D59" s="1">
+        <f>B59/C59</f>
+        <v>0.10618156128576475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B36">
-        <v>883</v>
-      </c>
-      <c r="C36">
+      <c r="B60" s="10">
+        <v>1621</v>
+      </c>
+      <c r="C60">
         <v>15368</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7457053617907337E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37">
-        <v>2003</v>
-      </c>
-      <c r="C37">
-        <v>35077</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7102944949682127E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>398</v>
-      </c>
-      <c r="C38">
-        <v>7091</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6127485545057115E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
-        <v>1312</v>
-      </c>
-      <c r="C39">
-        <v>23382</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6111538790522622E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40">
-        <v>287</v>
-      </c>
-      <c r="C40">
-        <v>5116</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6098514464425334E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>1716</v>
-      </c>
-      <c r="C41">
-        <v>31149</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="2"/>
-        <v>5.509005104497737E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>3310</v>
-      </c>
-      <c r="C42">
-        <v>60798</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4442580348037763E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43">
-        <v>384</v>
-      </c>
-      <c r="C43">
-        <v>7216</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="2"/>
-        <v>5.3215077605321508E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44">
-        <v>4416</v>
-      </c>
-      <c r="C44">
-        <v>83843</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2669871068544781E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45">
-        <v>1459</v>
-      </c>
-      <c r="C45">
-        <v>27948</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2204093316158579E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>967</v>
-      </c>
-      <c r="C46">
-        <v>18755</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1559584110903757E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>461</v>
-      </c>
-      <c r="C47">
-        <v>9311</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="2"/>
-        <v>4.9511330684137045E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48">
-        <v>1691</v>
-      </c>
-      <c r="C48">
-        <v>34850</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="2"/>
-        <v>4.8522238163558107E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>9782</v>
-      </c>
-      <c r="C49">
-        <v>202759</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="2"/>
-        <v>4.8244467569873592E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50">
-        <v>2516</v>
-      </c>
-      <c r="C50">
-        <v>52716</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="2"/>
-        <v>4.7727445177934591E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D60" s="1">
+        <f>B60/C60</f>
+        <v>0.10547891723060905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="10">
+        <v>776</v>
+      </c>
+      <c r="C61">
+        <v>7373</v>
+      </c>
+      <c r="D61" s="1">
+        <f>B61/C61</f>
+        <v>0.10524888105248881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="10">
+        <v>2055</v>
+      </c>
+      <c r="C62">
+        <v>19636</v>
+      </c>
+      <c r="D62" s="1">
+        <f>B62/C62</f>
+        <v>0.10465471582807089</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C63">
+        <v>19287</v>
+      </c>
+      <c r="D63" s="1">
+        <f>B63/C63</f>
+        <v>0.10411157774666874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="10">
+        <v>2331</v>
+      </c>
+      <c r="C64">
+        <v>22497</v>
+      </c>
+      <c r="D64" s="1">
+        <f>B64/C64</f>
+        <v>0.10361381517535671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B51">
-        <v>613</v>
-      </c>
-      <c r="C51">
+      <c r="B65" s="10">
+        <v>1340</v>
+      </c>
+      <c r="C65">
         <v>13053</v>
       </c>
-      <c r="D51" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6962384126254503E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52">
-        <v>196</v>
-      </c>
-      <c r="C52">
-        <v>4195</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="2"/>
-        <v>4.67222884386174E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D65" s="1">
+        <f>B65/C65</f>
+        <v>0.10265839270665747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B53">
-        <v>5526</v>
-      </c>
-      <c r="C53">
+      <c r="B66" s="10">
+        <v>12313</v>
+      </c>
+      <c r="C66">
         <v>120068</v>
       </c>
-      <c r="D53" s="1">
-        <f t="shared" si="2"/>
-        <v>4.602391977879202E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54">
-        <v>3677</v>
-      </c>
-      <c r="C54">
-        <v>80477</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5690072940094688E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55">
-        <v>1027</v>
-      </c>
-      <c r="C55">
-        <v>22497</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5650531181935371E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56">
-        <v>915</v>
-      </c>
-      <c r="C56">
-        <v>20626</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4361485503733152E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57">
-        <v>1393</v>
-      </c>
-      <c r="C57">
-        <v>32251</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3192459148553533E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58">
-        <v>610</v>
-      </c>
-      <c r="C58">
-        <v>14155</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3094312963617099E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D66" s="1">
+        <f>B66/C66</f>
+        <v>0.1025502215411267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="10">
+        <v>918</v>
+      </c>
+      <c r="C67">
+        <v>9132</v>
+      </c>
+      <c r="D67" s="1">
+        <f>B67/C67</f>
+        <v>0.10052562417871222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1128</v>
+      </c>
+      <c r="C68">
+        <v>11613</v>
+      </c>
+      <c r="D68" s="1">
+        <f>B68/C68</f>
+        <v>9.7132523895634204E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1259</v>
+      </c>
+      <c r="C69">
+        <v>13306</v>
+      </c>
+      <c r="D69" s="1">
+        <f>B69/C69</f>
+        <v>9.4618968886216751E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="10">
+        <v>490</v>
+      </c>
+      <c r="C70">
+        <v>5264</v>
+      </c>
+      <c r="D70" s="1">
+        <f>B70/C70</f>
+        <v>9.3085106382978719E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1828</v>
+      </c>
+      <c r="C71">
+        <v>20233</v>
+      </c>
+      <c r="D71" s="1">
+        <f>B71/C71</f>
+        <v>9.0347452182078777E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1925</v>
+      </c>
+      <c r="C72">
+        <v>21520</v>
+      </c>
+      <c r="D72" s="1">
+        <f>B72/C72</f>
+        <v>8.9451672862453535E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="10">
+        <v>585</v>
+      </c>
+      <c r="C73">
+        <v>6757</v>
+      </c>
+      <c r="D73" s="1">
+        <f>B73/C73</f>
+        <v>8.6576883232203639E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="10">
+        <v>536</v>
+      </c>
+      <c r="C74">
+        <v>6194</v>
+      </c>
+      <c r="D74" s="1">
+        <f>B74/C74</f>
+        <v>8.653535679690022E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
-      <c r="B59">
-        <v>680</v>
-      </c>
-      <c r="C59">
+      <c r="B75" s="10">
+        <v>1395</v>
+      </c>
+      <c r="C75">
         <v>16274</v>
       </c>
-      <c r="D59" s="1">
-        <f t="shared" si="2"/>
-        <v>4.1784441440334275E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60">
-        <v>604</v>
-      </c>
-      <c r="C60">
-        <v>14743</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0968595265549752E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61">
-        <v>767</v>
-      </c>
-      <c r="C61">
-        <v>19287</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9767719189091097E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D75" s="1">
+        <f>B75/C75</f>
+        <v>8.5719552660685761E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>28</v>
       </c>
-      <c r="B62">
-        <v>460</v>
-      </c>
-      <c r="C62">
+      <c r="B76" s="10">
+        <v>1011</v>
+      </c>
+      <c r="C76">
         <v>11853</v>
       </c>
-      <c r="D62" s="1">
-        <f t="shared" si="2"/>
-        <v>3.880874040327343E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63">
-        <v>508</v>
-      </c>
-      <c r="C63">
-        <v>13306</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="2"/>
-        <v>3.8178265444160531E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64">
-        <v>344</v>
-      </c>
-      <c r="C64">
-        <v>9132</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7669732807709154E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D76" s="1">
+        <f>B76/C76</f>
+        <v>8.5294862060237911E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B65">
-        <v>368</v>
-      </c>
-      <c r="C65">
+      <c r="B77" s="10">
+        <v>858</v>
+      </c>
+      <c r="C77">
         <v>10391</v>
       </c>
-      <c r="D65" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5415263208545857E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66">
-        <v>215</v>
-      </c>
-      <c r="C66">
-        <v>6194</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" ref="D66:D88" si="3">B66/C66</f>
-        <v>3.4711010655473037E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67">
-        <v>2541</v>
-      </c>
-      <c r="C67">
-        <v>74546</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="3"/>
-        <v>3.4086335953639364E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D77" s="1">
+        <f>B77/C77</f>
+        <v>8.2571456067750945E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="10">
+        <v>272</v>
+      </c>
+      <c r="C78">
+        <v>3501</v>
+      </c>
+      <c r="D78" s="1">
+        <f>B78/C78</f>
+        <v>7.7692087974864321E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="10">
+        <v>453</v>
+      </c>
+      <c r="C79">
+        <v>5845</v>
+      </c>
+      <c r="D79" s="1">
+        <f>B79/C79</f>
+        <v>7.7502138579982893E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B68">
-        <v>883</v>
-      </c>
-      <c r="C68">
+      <c r="B80" s="10">
+        <v>2058</v>
+      </c>
+      <c r="C80">
         <v>27258</v>
       </c>
-      <c r="D68" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2394159512803583E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D80" s="1">
+        <f>B80/C80</f>
+        <v>7.5500770416024654E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>22</v>
       </c>
-      <c r="B69">
-        <v>263</v>
-      </c>
-      <c r="C69">
+      <c r="B81" s="10">
+        <v>594</v>
+      </c>
+      <c r="C81">
         <v>8147</v>
       </c>
-      <c r="D69" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2281821529397327E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70">
-        <v>161</v>
-      </c>
-      <c r="C70">
-        <v>4991</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71">
-        <v>111</v>
-      </c>
-      <c r="C71">
-        <v>3501</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1705227077977724E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72">
-        <v>364</v>
-      </c>
-      <c r="C72">
-        <v>11613</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="3"/>
-        <v>3.134418324291742E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73">
-        <v>674</v>
-      </c>
-      <c r="C73">
-        <v>21520</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1319702602230486E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="D81" s="1">
+        <f>B81/C81</f>
+        <v>7.2910273720387872E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B74">
-        <v>370</v>
-      </c>
-      <c r="C74">
+      <c r="B82" s="10">
+        <v>875</v>
+      </c>
+      <c r="C82">
         <v>12008</v>
       </c>
-      <c r="D74" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0812791472351764E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75">
-        <v>206</v>
-      </c>
-      <c r="C75">
-        <v>6757</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0486902471511024E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D82" s="1">
+        <f>B82/C82</f>
+        <v>7.2868087941372423E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="10">
+        <v>667</v>
+      </c>
+      <c r="C83">
+        <v>9249</v>
+      </c>
+      <c r="D83" s="1">
+        <f>B83/C83</f>
+        <v>7.2115904422099683E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="10">
+        <v>826</v>
+      </c>
+      <c r="C84">
+        <v>11536</v>
+      </c>
+      <c r="D84" s="1">
+        <f>B84/C84</f>
+        <v>7.1601941747572811E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>77</v>
       </c>
-      <c r="B76">
-        <v>389</v>
-      </c>
-      <c r="C76">
+      <c r="B85" s="10">
+        <v>895</v>
+      </c>
+      <c r="C85">
         <v>12809</v>
       </c>
-      <c r="D76" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0369271605902099E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77">
-        <v>176</v>
-      </c>
-      <c r="C77">
-        <v>5851</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0080328149034354E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D85" s="1">
+        <f>B85/C85</f>
+        <v>6.9872745725661642E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>65</v>
       </c>
-      <c r="B78">
-        <v>247</v>
-      </c>
-      <c r="C78">
+      <c r="B86" s="10">
+        <v>534</v>
+      </c>
+      <c r="C86">
         <v>8370</v>
       </c>
-      <c r="D78" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9510155316606928E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D86" s="1">
+        <f>B86/C86</f>
+        <v>6.3799283154121866E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="10">
+        <v>202</v>
+      </c>
+      <c r="C87">
+        <v>3362</v>
+      </c>
+      <c r="D87" s="1">
+        <f>B87/C87</f>
+        <v>6.0083283759666865E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>71</v>
       </c>
-      <c r="B79">
-        <v>247</v>
-      </c>
-      <c r="C79">
+      <c r="B88" s="10">
+        <v>487</v>
+      </c>
+      <c r="C88">
         <v>8397</v>
       </c>
-      <c r="D79" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9415267357389543E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80">
-        <v>594</v>
-      </c>
-      <c r="C80">
-        <v>20233</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9357979538377897E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81">
-        <v>249</v>
-      </c>
-      <c r="C81">
-        <v>9249</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6921829386960753E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82">
-        <v>135</v>
-      </c>
-      <c r="C82">
-        <v>5264</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5645896656534953E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83">
-        <v>287</v>
-      </c>
-      <c r="C83">
-        <v>11536</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4878640776699028E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84">
-        <v>142</v>
-      </c>
-      <c r="C84">
-        <v>5845</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="3"/>
-        <v>2.429426860564585E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85">
-        <v>417</v>
-      </c>
-      <c r="C85">
-        <v>19636</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1236504379710735E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86">
-        <v>284</v>
-      </c>
-      <c r="C86">
-        <v>20108</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4123731848020689E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>7373</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1664180116641802E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88">
-        <v>39</v>
-      </c>
-      <c r="C88">
-        <v>3362</v>
-      </c>
       <c r="D88" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1600237953599048E-2</v>
+        <f>B88/C88</f>
+        <v>5.799690365606764E-2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D88">
-    <sortCondition descending="1" ref="D2:D88"/>
+    <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3923,18 +3943,18 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -3948,7 +3968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3984,7 +4004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3999,7 +4019,7 @@
         <v>6.2398334309323962E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4017,7 +4037,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>8.7643958617997272E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>0.14887610925088965</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4062,7 +4082,7 @@
         <v>0.52593382283017265</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -4070,7 +4090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>63</v>
       </c>
@@ -4078,12 +4098,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="G16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -4103,7 +4123,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -4128,7 +4148,7 @@
         <v>7.7353006860348988E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -4153,7 +4173,7 @@
         <v>0.1609308896372095</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -4178,7 +4198,7 @@
         <v>0.15668488816175768</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -4203,7 +4223,7 @@
         <v>0.1773449771907197</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -4228,7 +4248,7 @@
         <v>0.19414392430028957</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -4253,7 +4273,7 @@
         <v>0.13301555497563497</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -4278,7 +4298,7 @@
         <v>0.10052675887403957</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -4290,7 +4310,7 @@
         <v>3.1952431718193966E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="G26" t="s">
         <v>124</v>
       </c>
@@ -4299,7 +4319,7 @@
         <v>3188176</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -4308,12 +4328,12 @@
         <v>199797</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="G30">
         <v>14949</v>
       </c>
@@ -4321,7 +4341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="G31" s="7">
         <v>6384</v>
       </c>
@@ -4329,7 +4349,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1902</v>
       </c>
@@ -4337,7 +4357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1903</v>
       </c>
@@ -4349,7 +4369,7 @@
         <v>0.10677337497560023</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1906</v>
       </c>
@@ -4357,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1908</v>
       </c>
@@ -4365,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1919</v>
       </c>
@@ -4373,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1920</v>
       </c>
@@ -4381,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1930</v>
       </c>
@@ -4389,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1932</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1934</v>
       </c>
@@ -4408,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1936</v>
       </c>
@@ -4422,7 +4442,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1938</v>
       </c>
@@ -4436,7 +4456,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1940</v>
       </c>
@@ -4450,7 +4470,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>1941</v>
       </c>
@@ -4464,7 +4484,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>1942</v>
       </c>
@@ -4478,7 +4498,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1944</v>
       </c>
@@ -4492,7 +4512,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>1945</v>
       </c>
@@ -4506,7 +4526,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>1946</v>
       </c>
@@ -4520,7 +4540,7 @@
         <v>5219</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>1947</v>
       </c>
@@ -4534,7 +4554,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>1948</v>
       </c>
@@ -4548,7 +4568,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>1949</v>
       </c>
@@ -4556,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>1950</v>
       </c>
@@ -4564,7 +4584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>1951</v>
       </c>
@@ -4572,7 +4592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>1952</v>
       </c>
@@ -4580,7 +4600,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>1953</v>
       </c>
@@ -4588,7 +4608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>1954</v>
       </c>
@@ -4596,7 +4616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>1955</v>
       </c>
@@ -4604,7 +4624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>1956</v>
       </c>
@@ -4612,7 +4632,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>1957</v>
       </c>
@@ -4620,7 +4640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>1958</v>
       </c>
@@ -4628,7 +4648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>1959</v>
       </c>
@@ -4646,7 +4666,7 @@
         <v>0.24787659474366483</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>1960</v>
       </c>
@@ -4664,7 +4684,7 @@
         <v>7.0496554002312348E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>1961</v>
       </c>
@@ -4682,7 +4702,7 @@
         <v>9.1973352953247545E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>1962</v>
       </c>
@@ -4700,7 +4720,7 @@
         <v>0.10936100141643769</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>1963</v>
       </c>
@@ -4718,7 +4738,7 @@
         <v>0.13872080161363784</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>1964</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>0.18292566955459791</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>1965</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>0.15864602571610184</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -4762,7 +4782,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>1967</v>
       </c>
@@ -4774,7 +4794,7 @@
         <v>199797</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>1968</v>
       </c>
@@ -4782,7 +4802,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>1969</v>
       </c>
@@ -4790,7 +4810,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>1970</v>
       </c>
@@ -4798,7 +4818,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>1971</v>
       </c>
@@ -4809,7 +4829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>1972</v>
       </c>
@@ -4817,7 +4837,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>1973</v>
       </c>
@@ -4834,7 +4854,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>1974</v>
       </c>
@@ -4851,7 +4871,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>1975</v>
       </c>
@@ -4868,7 +4888,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>1976</v>
       </c>
@@ -4895,7 +4915,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>1977</v>
       </c>
@@ -4922,7 +4942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>1978</v>
       </c>
@@ -4949,7 +4969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>1979</v>
       </c>
@@ -4966,7 +4986,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>1980</v>
       </c>
@@ -4986,7 +5006,7 @@
         <v>199797</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>1981</v>
       </c>
@@ -5003,7 +5023,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>1982</v>
       </c>
@@ -5020,7 +5040,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>1983</v>
       </c>
@@ -5037,7 +5057,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>1984</v>
       </c>
@@ -5054,7 +5074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>1985</v>
       </c>
@@ -5071,7 +5091,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>1986</v>
       </c>
@@ -5088,7 +5108,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>1987</v>
       </c>
@@ -5105,7 +5125,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>1988</v>
       </c>
@@ -5122,7 +5142,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>1989</v>
       </c>
@@ -5139,7 +5159,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>1990</v>
       </c>
@@ -5156,7 +5176,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>1991</v>
       </c>
@@ -5173,7 +5193,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>1992</v>
       </c>
@@ -5190,7 +5210,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>1993</v>
       </c>
@@ -5207,7 +5227,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>1994</v>
       </c>
@@ -5224,7 +5244,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>1995</v>
       </c>
@@ -5241,7 +5261,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>1996</v>
       </c>
@@ -5258,7 +5278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>1997</v>
       </c>
@@ -5275,7 +5295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>1998</v>
       </c>
@@ -5292,7 +5312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>1999</v>
       </c>
@@ -5309,7 +5329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>2000</v>
       </c>
@@ -5326,7 +5346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>2001</v>
       </c>
@@ -5343,7 +5363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>2002</v>
       </c>
@@ -5360,7 +5380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>2003</v>
       </c>
@@ -5377,7 +5397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>2004</v>
       </c>
@@ -5394,7 +5414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>2005</v>
       </c>
@@ -5411,7 +5431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>2006</v>
       </c>
@@ -5428,7 +5448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>2007</v>
       </c>
@@ -5445,7 +5465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>2008</v>
       </c>
@@ -5462,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>2009</v>
       </c>
@@ -5479,7 +5499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>2010</v>
       </c>
@@ -5496,7 +5516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>2011</v>
       </c>
@@ -5513,7 +5533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>2012</v>
       </c>
@@ -5530,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>2013</v>
       </c>
@@ -5547,7 +5567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>2014</v>
       </c>
@@ -5564,7 +5584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>2015</v>
       </c>
@@ -5581,7 +5601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>2016</v>
       </c>
@@ -5598,7 +5618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="F119">
         <v>2010</v>
       </c>
@@ -5609,7 +5629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="F120">
         <v>2010</v>
       </c>
@@ -5620,7 +5640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="F121">
         <v>2010</v>
       </c>
@@ -5631,7 +5651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="F122">
         <v>2010</v>
       </c>
@@ -5642,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="F123">
         <v>2010</v>
       </c>
@@ -5653,7 +5673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="F124">
         <v>2009</v>
       </c>
@@ -5664,7 +5684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="F125">
         <v>2009</v>
       </c>
@@ -5675,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="F126">
         <v>2009</v>
       </c>
@@ -5686,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="F127">
         <v>2009</v>
       </c>
@@ -5697,7 +5717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="F128">
         <v>2009</v>
       </c>
@@ -5708,7 +5728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:8">
       <c r="F129">
         <v>2008</v>
       </c>
@@ -5719,7 +5739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:8">
       <c r="F130">
         <v>2008</v>
       </c>
@@ -5730,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:8">
       <c r="F131">
         <v>2007</v>
       </c>
@@ -5741,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:8">
       <c r="F132">
         <v>2006</v>
       </c>
@@ -5752,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:8">
       <c r="F133">
         <v>2006</v>
       </c>
@@ -5763,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:8">
       <c r="F134">
         <v>2006</v>
       </c>
@@ -5774,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:8">
       <c r="F135">
         <v>2006</v>
       </c>
@@ -5785,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:8">
       <c r="F136">
         <v>2005</v>
       </c>
@@ -5796,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:8">
       <c r="F137">
         <v>2004</v>
       </c>
@@ -5814,6 +5834,11 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5838,13 +5863,13 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -5852,7 +5877,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>152</v>
       </c>
@@ -5860,7 +5885,7 @@
         <v>98057</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>150</v>
       </c>
@@ -5868,7 +5893,7 @@
         <v>35324</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>151</v>
       </c>
@@ -5876,7 +5901,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>148</v>
       </c>
@@ -5884,7 +5909,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
@@ -5892,7 +5917,7 @@
         <v>19693</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
@@ -5903,6 +5928,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5914,14 +5944,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -5941,7 +5971,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>9</v>
       </c>
@@ -5963,7 +5993,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>9</v>
       </c>
@@ -5985,7 +6015,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>9</v>
       </c>
@@ -6007,7 +6037,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>9</v>
       </c>
@@ -6029,7 +6059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>9</v>
       </c>
@@ -6051,7 +6081,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>9</v>
       </c>
@@ -6079,7 +6109,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>9</v>
       </c>
@@ -6107,7 +6137,7 @@
         <v>19693</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6135,7 +6165,7 @@
         <v>35324</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6163,7 +6193,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6191,7 +6221,7 @@
         <v>98057</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6213,7 +6243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6235,7 +6265,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>9</v>
       </c>
@@ -6257,7 +6287,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>9</v>
       </c>
@@ -6279,7 +6309,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>9</v>
       </c>
@@ -6301,7 +6331,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>9</v>
       </c>
@@ -6323,7 +6353,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>10</v>
       </c>
@@ -6345,7 +6375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>10</v>
       </c>
@@ -6367,7 +6397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>10</v>
       </c>
@@ -6389,7 +6419,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6411,7 +6441,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>10</v>
       </c>
@@ -6433,7 +6463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>10</v>
       </c>
@@ -6455,7 +6485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>10</v>
       </c>
@@ -6477,7 +6507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>10</v>
       </c>
@@ -6499,7 +6529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>10</v>
       </c>
@@ -6521,7 +6551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>10</v>
       </c>
@@ -6543,7 +6573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>10</v>
       </c>
@@ -6565,7 +6595,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>10</v>
       </c>
@@ -6587,7 +6617,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>10</v>
       </c>
@@ -6609,7 +6639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>10</v>
       </c>
@@ -6631,7 +6661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>10</v>
       </c>
@@ -6653,7 +6683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>10</v>
       </c>
@@ -6675,7 +6705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>10</v>
       </c>
@@ -6697,7 +6727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>10</v>
       </c>
@@ -6719,7 +6749,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>10</v>
       </c>
@@ -6741,7 +6771,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>10</v>
       </c>
@@ -6763,7 +6793,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>10</v>
       </c>
@@ -6785,7 +6815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>10</v>
       </c>
@@ -6807,7 +6837,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>10</v>
       </c>
@@ -6831,8 +6861,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6844,17 +6879,17 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>141</v>
       </c>
@@ -6865,7 +6900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -6877,7 +6912,7 @@
         <v>9.0096447894613033E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -6889,7 +6924,7 @@
         <v>5.6827680095296727E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -6901,7 +6936,7 @@
         <v>0.12775967607121227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -6913,7 +6948,7 @@
         <v>0.29410351506779381</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6925,7 +6960,7 @@
         <v>9.210849011746923E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -6937,7 +6972,7 @@
         <v>6.4065026001391412E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -6949,7 +6984,7 @@
         <v>0.13370070621681007</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -6961,7 +6996,7 @@
         <v>0.13547750967231739</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -6973,7 +7008,7 @@
         <v>5.8609488630960421E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -6982,7 +7017,7 @@
         <v>199797</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -6995,7 +7030,7 @@
         <v>0.56878731912891589</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -7008,17 +7043,17 @@
         <v>0.42535173200798809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>163</v>
       </c>
@@ -7026,7 +7061,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -7037,11 +7072,11 @@
         <v>299</v>
       </c>
       <c r="D26" s="1">
-        <f>B26/$B$36</f>
+        <f t="shared" ref="D26:D34" si="1">B26/$B$36</f>
         <v>8.4120898442167649E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -7052,11 +7087,11 @@
         <v>200</v>
       </c>
       <c r="D27" s="1">
-        <f>B27/$B$36</f>
+        <f t="shared" si="1"/>
         <v>5.4120249772111967E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -7067,11 +7102,11 @@
         <v>414</v>
       </c>
       <c r="D28" s="1">
-        <f>B28/$B$36</f>
+        <f t="shared" si="1"/>
         <v>0.11952940694486645</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -7082,11 +7117,11 @@
         <v>821</v>
       </c>
       <c r="D29" s="1">
-        <f>B29/$B$36</f>
+        <f t="shared" si="1"/>
         <v>0.28745506252837932</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -7097,11 +7132,11 @@
         <v>323</v>
       </c>
       <c r="D30" s="1">
-        <f>B30/$B$36</f>
+        <f t="shared" si="1"/>
         <v>8.6871942288849369E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -7112,11 +7147,11 @@
         <v>260</v>
       </c>
       <c r="D31" s="1">
-        <f>B31/$B$36</f>
+        <f t="shared" si="1"/>
         <v>6.2682011696545317E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -7127,11 +7162,11 @@
         <v>616</v>
       </c>
       <c r="D32" s="1">
-        <f>B32/$B$36</f>
+        <f t="shared" si="1"/>
         <v>0.14285660636311184</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -7142,11 +7177,11 @@
         <v>1079</v>
       </c>
       <c r="D33" s="1">
-        <f>B33/$B$36</f>
+        <f t="shared" si="1"/>
         <v>0.15704609312853568</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -7157,11 +7192,11 @@
         <v>45</v>
       </c>
       <c r="D34" s="1">
-        <f>B34/$B$36</f>
+        <f t="shared" si="1"/>
         <v>5.3177288354324071E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -7179,6 +7214,11 @@
     <sortCondition ref="A26:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>